--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,330 +32,336 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="108">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1_input_valid_7</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="110">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1_input_valid_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -446,13 +452,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -488,15 +498,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,62 +541,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -594,21 +604,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -623,35 +641,35 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -668,7 +686,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -685,7 +703,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -702,7 +720,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -719,7 +737,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -736,7 +754,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -754,7 +772,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -769,29 +787,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A5:B5 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -802,7 +820,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -813,7 +831,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -824,7 +842,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -835,7 +853,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -846,7 +864,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -857,7 +875,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -868,7 +886,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -879,7 +897,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -890,7 +908,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -901,7 +919,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -912,7 +930,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -923,7 +941,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -935,7 +953,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -950,32 +968,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -989,7 +1007,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1003,7 +1021,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1017,7 +1035,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1031,7 +1049,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1045,7 +1063,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1059,7 +1077,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1073,7 +1091,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1087,7 +1105,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1101,7 +1119,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1115,7 +1133,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1129,7 +1147,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1143,7 +1161,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1157,7 +1175,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1171,7 +1189,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1185,7 +1203,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1199,7 +1217,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1213,7 +1231,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1227,7 +1245,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1241,7 +1259,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1256,7 +1274,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1271,74 +1289,74 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1349,19 +1367,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1372,22 +1390,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1398,16 +1416,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1418,19 +1436,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1441,22 +1459,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1467,10 +1485,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1481,10 +1499,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1495,10 +1513,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1509,10 +1527,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1523,10 +1541,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1537,10 +1555,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1551,10 +1569,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1566,7 +1584,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1581,83 +1599,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1722,7 +1740,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1787,7 +1805,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1852,7 +1870,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1917,7 +1935,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1982,7 +2000,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2047,7 +2065,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2112,7 +2130,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2177,7 +2195,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2242,7 +2260,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2307,7 +2325,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2372,7 +2390,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2437,7 +2455,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2503,7 +2521,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2518,41 +2536,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2569,10 +2587,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2589,10 +2607,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2609,10 +2627,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2629,10 +2647,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2649,10 +2667,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2669,10 +2687,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2689,10 +2707,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2709,10 +2727,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2729,10 +2747,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2749,10 +2767,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2769,10 +2787,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2789,10 +2807,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2809,10 +2827,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2829,10 +2847,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2849,10 +2867,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2869,10 +2887,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2889,10 +2907,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2909,10 +2927,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2929,10 +2947,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2950,7 +2968,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2965,38 +2983,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3007,10 +3025,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3021,10 +3039,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3035,10 +3053,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3049,10 +3067,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3063,10 +3081,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3077,10 +3095,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3091,10 +3109,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3105,10 +3123,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3119,10 +3137,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3133,10 +3151,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3147,10 +3165,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3161,10 +3179,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3176,7 +3194,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3191,89 +3209,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3288,124 +3306,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3420,124 +3438,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3552,29 +3570,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3585,7 +3603,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3596,7 +3614,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3607,7 +3625,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3618,7 +3636,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3629,7 +3647,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3640,7 +3658,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3651,7 +3669,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3662,7 +3680,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3673,7 +3691,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3684,7 +3702,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3695,7 +3713,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3706,7 +3724,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3718,7 +3736,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3733,29 +3751,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3766,7 +3784,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3777,7 +3795,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3788,7 +3806,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3799,7 +3817,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3810,7 +3828,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3821,7 +3839,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3832,7 +3850,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3843,7 +3861,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3854,7 +3872,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3865,7 +3883,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3876,7 +3894,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3887,7 +3905,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3898,7 +3916,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3909,7 +3927,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3920,7 +3938,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3931,7 +3949,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3942,7 +3960,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3953,7 +3971,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3964,7 +3982,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3976,7 +3994,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_input_valid_7</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -498,10 +480,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -517,24 +499,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -593,6 +575,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -602,27 +587,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -642,7 +609,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -652,24 +619,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -686,7 +653,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -703,7 +670,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -720,7 +687,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -737,7 +704,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -754,7 +721,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -788,7 +755,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A5:B5 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B3 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -798,18 +765,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -820,7 +787,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -831,7 +798,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -842,7 +809,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -853,7 +820,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -864,7 +831,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -875,7 +842,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -886,7 +853,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -897,7 +864,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -908,7 +875,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -919,7 +886,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -930,7 +897,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -941,7 +908,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -969,7 +936,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -979,21 +946,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1007,7 +974,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1021,7 +988,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1035,7 +1002,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1049,7 +1016,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1063,7 +1030,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1077,7 +1044,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1091,7 +1058,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1105,7 +1072,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1119,7 +1086,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1133,7 +1100,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1147,7 +1114,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1161,7 +1128,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1175,7 +1142,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1189,7 +1156,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1203,7 +1170,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1217,7 +1184,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1231,7 +1198,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1245,7 +1212,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1259,7 +1226,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1290,7 +1257,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1299,64 +1266,64 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1367,19 +1334,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1390,22 +1357,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1416,16 +1383,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1436,19 +1403,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1459,22 +1426,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1485,10 +1452,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1499,10 +1466,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1513,10 +1480,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1527,10 +1494,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1541,10 +1508,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1555,10 +1522,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1569,10 +1536,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1600,7 +1567,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1610,72 +1577,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1740,7 +1707,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1805,7 +1772,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1870,7 +1837,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1935,7 +1902,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2000,7 +1967,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2065,7 +2032,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2130,7 +2097,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2195,7 +2162,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2260,7 +2227,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2325,7 +2292,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2390,7 +2357,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2455,7 +2422,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2534,434 +2501,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2981,214 +2823,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3210,7 +3011,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3220,72 +3021,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3307,7 +3108,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3317,107 +3118,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +3240,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3449,107 +3250,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3571,7 +3372,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3581,18 +3382,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3603,7 +3404,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3614,7 +3415,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3625,7 +3426,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3636,7 +3437,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3647,7 +3448,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3658,7 +3459,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3669,7 +3470,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3680,7 +3481,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3691,7 +3492,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3702,7 +3503,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3713,7 +3514,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3724,7 +3525,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3752,7 +3553,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3762,18 +3563,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3784,7 +3585,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3795,7 +3596,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3806,7 +3607,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3817,7 +3618,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3828,7 +3629,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3839,7 +3640,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3850,7 +3651,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3861,7 +3662,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3872,7 +3673,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3883,7 +3684,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3894,7 +3695,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3905,7 +3706,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3916,7 +3717,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3927,7 +3728,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3938,7 +3739,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3949,7 +3750,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3960,7 +3761,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3971,7 +3772,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3982,7 +3783,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
@@ -483,7 +483,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="Z6" activeCellId="0" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,7 +609,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -755,7 +755,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B3 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -936,7 +936,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1567,7 +1567,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2504,7 +2504,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2826,7 +2826,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3011,7 +3011,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3108,7 +3108,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3240,7 +3240,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3372,7 +3372,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3553,7 +3553,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -447,12 +444,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -482,7 +479,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z6" activeCellId="0" sqref="Z6"/>
     </sheetView>
   </sheetViews>
@@ -619,19 +616,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,13 +762,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,16 +943,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,40 +1270,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,13 +1311,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1337,16 +1334,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1360,16 +1357,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1386,13 +1383,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1406,16 +1403,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1429,16 +1426,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1455,7 +1452,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1469,7 +1466,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1483,7 +1480,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1497,7 +1494,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1511,7 +1508,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1525,7 +1522,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1539,7 +1536,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2501,16 +2498,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,21 +2520,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2545,13 +2536,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2559,13 +2547,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2573,13 +2558,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2587,111 +2569,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,13 +2657,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2713,13 +2668,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2727,13 +2679,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2741,13 +2690,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2755,13 +2701,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2769,13 +2712,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2783,13 +2723,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2797,13 +2734,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2840,20 +2774,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2864,7 +2798,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2875,7 +2809,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2886,7 +2820,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2897,7 +2831,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2908,7 +2842,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2919,7 +2853,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2930,7 +2864,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2941,7 +2875,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2952,7 +2886,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2963,7 +2897,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -2974,7 +2908,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -2985,7 +2919,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3118,7 +3052,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3250,7 +3184,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,13 +3316,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,13 +3497,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -603,152 +602,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -925,7 +778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1246,7 +1099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2500,7 +2353,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2942,9 +2795,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2955,72 +2808,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3171,138 +3059,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3479,7 +3235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3735,4 +3491,150 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -478,8 +478,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z6" activeCellId="0" sqref="Z6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -532,7 +532,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,7 +2797,7 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_7.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="106">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -430,7 +439,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,6 +450,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -479,7 +492,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -527,64 +540,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -605,7 +632,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A6:B7 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -615,18 +642,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -637,7 +664,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -648,7 +675,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -659,7 +686,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -670,7 +697,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -681,7 +708,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -692,7 +719,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -703,7 +730,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -714,7 +741,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -725,7 +752,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -736,7 +763,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -747,7 +774,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -758,7 +785,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -786,7 +813,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -796,21 +823,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -824,7 +851,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -838,7 +865,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -852,7 +879,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -866,7 +893,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -880,7 +907,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -894,7 +921,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -908,7 +935,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -922,7 +949,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -936,7 +963,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -950,7 +977,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -964,7 +991,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -978,7 +1005,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -992,7 +1019,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1006,7 +1033,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1020,7 +1047,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1034,7 +1061,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1048,7 +1075,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1062,7 +1089,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1076,7 +1103,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1107,7 +1134,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A6:B7 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1123,57 +1150,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1184,19 +1211,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1207,22 +1234,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1233,16 +1260,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1253,19 +1280,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1276,22 +1303,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1302,10 +1329,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1316,10 +1343,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1330,10 +1357,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1344,10 +1371,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1358,10 +1385,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1372,10 +1399,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1386,10 +1413,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1417,7 +1444,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1427,72 +1454,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1557,7 +1584,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1622,7 +1649,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1687,7 +1714,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1752,7 +1779,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1817,7 +1844,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1882,7 +1909,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1947,7 +1974,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2012,7 +2039,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2077,7 +2104,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2142,7 +2169,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2207,7 +2234,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2272,7 +2299,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2354,7 +2381,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2365,21 +2392,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2387,10 +2414,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2398,10 +2425,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2409,10 +2436,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2420,10 +2447,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2431,10 +2458,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2442,10 +2469,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2453,10 +2480,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2464,10 +2491,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2475,10 +2502,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2486,10 +2513,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2497,10 +2524,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2508,10 +2535,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2519,10 +2546,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2530,10 +2557,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2541,10 +2568,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2552,10 +2579,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2563,10 +2590,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2574,10 +2601,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2585,10 +2612,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2613,7 +2640,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2624,24 +2651,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2649,10 +2676,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2660,10 +2687,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2671,10 +2698,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2682,10 +2709,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2693,10 +2720,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2704,10 +2731,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2715,10 +2742,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2726,10 +2753,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2737,10 +2764,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2748,10 +2775,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2759,10 +2786,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2770,10 +2797,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2798,7 +2825,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2808,107 +2835,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2930,7 +2957,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2940,107 +2967,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3062,7 +3089,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3072,18 +3099,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3094,7 +3121,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3105,7 +3132,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3116,7 +3143,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3127,7 +3154,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3138,7 +3165,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3149,7 +3176,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3160,7 +3187,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3171,7 +3198,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3182,7 +3209,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3193,7 +3220,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3204,7 +3231,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3215,7 +3242,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3243,7 +3270,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3253,18 +3280,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3275,7 +3302,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3286,7 +3313,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3297,7 +3324,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3308,7 +3335,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3319,7 +3346,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3330,7 +3357,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3341,7 +3368,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3352,7 +3379,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3363,7 +3390,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3374,7 +3401,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3385,7 +3412,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3396,7 +3423,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3407,7 +3434,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3418,7 +3445,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3429,7 +3456,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3440,7 +3467,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3451,7 +3478,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3462,7 +3489,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3473,7 +3500,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3501,7 +3528,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A6:B7 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3511,24 +3538,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3545,7 +3572,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3562,7 +3589,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3579,7 +3606,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3596,7 +3623,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3613,7 +3640,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
